--- a/Database.xlsx
+++ b/Database.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>Toàn Quốc</t>
   </si>
@@ -209,7 +209,10 @@
     <t>Yên Bái</t>
   </si>
   <si>
-    <t>Motel</t>
+    <t>Motel (single room)(24h)</t>
+  </si>
+  <si>
+    <t>Motel (double room)(24h)</t>
   </si>
   <si>
     <t>1-star Hotel</t>
@@ -227,13 +230,28 @@
     <t>5-star Hotel</t>
   </si>
   <si>
-    <t>Room for rent by hour</t>
-  </si>
-  <si>
-    <t>Room for rent by day</t>
-  </si>
-  <si>
-    <t>Room for rent by month</t>
+    <t>Room for rent by hour (single room)</t>
+  </si>
+  <si>
+    <t>first :60000 + 10000</t>
+  </si>
+  <si>
+    <t>Room for rent by hour (double room)</t>
+  </si>
+  <si>
+    <t>first :80000 + 20000</t>
+  </si>
+  <si>
+    <t>Room for rent by day(single room)</t>
+  </si>
+  <si>
+    <t>Room for rent by day(double room)</t>
+  </si>
+  <si>
+    <t>Room for rent by month (single room)</t>
+  </si>
+  <si>
+    <t>Room for rent by month (double room)</t>
   </si>
   <si>
     <t>Home Stay by day</t>
@@ -584,7 +602,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BM13"/>
+  <dimension ref="A1:BM17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,7 +610,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="36.419678" customWidth="true" style="0"/>
+    <col min="1" max="1" width="43.560791" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65">
@@ -793,172 +811,16 @@
       <c r="A2" t="s">
         <v>64</v>
       </c>
+      <c r="B2">
+        <v>230000</v>
+      </c>
     </row>
     <row r="3" spans="1:65">
       <c r="A3" t="s">
         <v>65</v>
       </c>
       <c r="B3">
-        <v>307433</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1250000</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>204732</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>594549</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>321916</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>364123</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>562500</v>
-      </c>
-      <c r="AD3">
-        <v>2250000</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>365755</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>476470</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>412504</v>
-      </c>
-      <c r="AV3">
-        <v>272500</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>139500</v>
-      </c>
-      <c r="BE3">
-        <v>331000</v>
-      </c>
-      <c r="BG3">
-        <v>283050</v>
-      </c>
-      <c r="BH3">
-        <v>394873</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>310001</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -966,166 +828,55 @@
         <v>66</v>
       </c>
       <c r="B4">
-        <v>532246</v>
-      </c>
-      <c r="C4">
-        <v>562500</v>
+        <v>324245</v>
       </c>
       <c r="D4">
-        <v>980000</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>642309</v>
-      </c>
-      <c r="I4">
-        <v>1121000</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>618597</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
+        <v>306000</v>
       </c>
       <c r="O4">
-        <v>527214</v>
-      </c>
-      <c r="P4">
-        <v>675001</v>
+        <v>277361</v>
       </c>
       <c r="Q4">
-        <v>560793</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>309999</v>
+        <v>476366</v>
       </c>
       <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>315000</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
+        <v>321916</v>
       </c>
       <c r="Z4">
-        <v>513280</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
+        <v>390019</v>
       </c>
       <c r="AC4">
-        <v>358500</v>
+        <v>1012499</v>
       </c>
       <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>675000</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
+        <v>2250000</v>
       </c>
       <c r="AK4">
-        <v>467450</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
+        <v>348586</v>
       </c>
       <c r="AQ4">
-        <v>533209</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
+        <v>586156</v>
       </c>
       <c r="AU4">
-        <v>357749</v>
+        <v>462987</v>
       </c>
       <c r="AV4">
-        <v>1772780</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>609280</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
+        <v>286250</v>
       </c>
       <c r="BD4">
-        <v>405000</v>
+        <v>139500</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>331000</v>
       </c>
       <c r="BG4">
-        <v>552107</v>
+        <v>283050</v>
       </c>
       <c r="BH4">
-        <v>589986</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
+        <v>375352</v>
       </c>
       <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
+        <v>310001</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -1133,166 +884,76 @@
         <v>67</v>
       </c>
       <c r="B5">
-        <v>847042</v>
+        <v>527417</v>
       </c>
       <c r="C5">
-        <v>2590638</v>
+        <v>562500</v>
       </c>
       <c r="D5">
-        <v>1501633</v>
-      </c>
-      <c r="E5">
-        <v>760500</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>516549</v>
       </c>
       <c r="H5">
-        <v>952832</v>
+        <v>642309</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>817000</v>
       </c>
       <c r="K5">
-        <v>5797965</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
+        <v>618597</v>
       </c>
       <c r="O5">
-        <v>1274635</v>
+        <v>454176</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>479999</v>
       </c>
       <c r="Q5">
-        <v>1016789</v>
-      </c>
-      <c r="R5">
-        <v>1285000</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
+        <v>483429</v>
       </c>
       <c r="U5">
-        <v>2300000</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>798525</v>
+        <v>210000</v>
       </c>
       <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
+        <v>285000</v>
       </c>
       <c r="Z5">
-        <v>1135491</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>2151765</v>
+        <v>503748</v>
       </c>
       <c r="AC5">
-        <v>1631716</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
+        <v>401374</v>
       </c>
       <c r="AE5">
-        <v>1500000</v>
-      </c>
-      <c r="AG5">
-        <v>2635000</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>8100000</v>
+        <v>675000</v>
       </c>
       <c r="AK5">
-        <v>921000</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
+        <v>310469</v>
       </c>
       <c r="AM5">
-        <v>1072197</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>977126</v>
+        <v>408107</v>
       </c>
       <c r="AQ5">
-        <v>788566</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
+        <v>567053</v>
       </c>
       <c r="AU5">
-        <v>1021824</v>
+        <v>330299</v>
       </c>
       <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
+        <v>335550</v>
       </c>
       <c r="AX5">
-        <v>2548939</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
+        <v>565931</v>
       </c>
       <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>1496880</v>
+        <v>607500</v>
       </c>
       <c r="BD5">
-        <v>549999</v>
-      </c>
-      <c r="BE5">
-        <v>808484</v>
+        <v>405000</v>
       </c>
       <c r="BG5">
-        <v>2870139</v>
+        <v>552107</v>
       </c>
       <c r="BH5">
-        <v>1402900</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5">
-        <v>0</v>
+        <v>496401</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -1300,166 +961,106 @@
         <v>68</v>
       </c>
       <c r="B6">
-        <v>2079065</v>
+        <v>881045</v>
       </c>
       <c r="C6">
-        <v>1782702</v>
+        <v>1360944</v>
       </c>
       <c r="D6">
-        <v>3205581</v>
+        <v>961549</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>760500</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="H6">
-        <v>1586250</v>
-      </c>
-      <c r="I6">
-        <v>1026000</v>
+        <v>942831</v>
       </c>
       <c r="J6">
-        <v>1935284</v>
+        <v>740000</v>
       </c>
       <c r="K6">
-        <v>1486485</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
+        <v>2249468</v>
       </c>
       <c r="O6">
-        <v>1354596</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
+        <v>643257</v>
       </c>
       <c r="Q6">
-        <v>2302022</v>
+        <v>875924</v>
       </c>
       <c r="R6">
-        <v>935813</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
+        <v>1980000</v>
       </c>
       <c r="U6">
-        <v>2702700</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>1910001</v>
+        <v>798525</v>
       </c>
       <c r="Z6">
-        <v>1423849</v>
-      </c>
-      <c r="AA6">
-        <v>918000</v>
+        <v>1542204</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>2656500</v>
       </c>
       <c r="AC6">
-        <v>3061462</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
+        <v>1470133</v>
       </c>
       <c r="AE6">
-        <v>1381380</v>
+        <v>1500000</v>
       </c>
       <c r="AG6">
-        <v>2134735</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
+        <v>2206773</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>8100000</v>
       </c>
       <c r="AK6">
-        <v>1180350</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
+        <v>821000</v>
       </c>
       <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
+        <v>1104147</v>
       </c>
       <c r="AP6">
-        <v>973506</v>
+        <v>931701</v>
       </c>
       <c r="AQ6">
-        <v>1202727</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>1300000</v>
+        <v>675502</v>
       </c>
       <c r="AU6">
-        <v>1794800</v>
+        <v>905364</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>554801</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>750000</v>
       </c>
       <c r="AX6">
-        <v>9257270</v>
+        <v>972000</v>
       </c>
       <c r="AY6">
-        <v>862050</v>
-      </c>
-      <c r="BA6">
-        <v>1549999</v>
+        <v>900000</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>1496880</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="BE6">
-        <v>1930279</v>
+        <v>804127</v>
       </c>
       <c r="BG6">
-        <v>2504641</v>
+        <v>2870042</v>
       </c>
       <c r="BH6">
-        <v>1715319</v>
-      </c>
-      <c r="BJ6">
-        <v>1300000</v>
-      </c>
-      <c r="BK6">
-        <v>0</v>
+        <v>1210623</v>
       </c>
       <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6">
-        <v>0</v>
+        <v>1265000</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -1467,196 +1068,252 @@
         <v>69</v>
       </c>
       <c r="B7">
-        <v>2819420</v>
+        <v>1786108</v>
       </c>
       <c r="C7">
-        <v>1645280</v>
+        <v>1782623</v>
       </c>
       <c r="D7">
-        <v>3219167</v>
-      </c>
-      <c r="E7">
-        <v>760500</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
+        <v>1581377</v>
       </c>
       <c r="H7">
-        <v>1033555</v>
+        <v>2936249</v>
       </c>
       <c r="I7">
-        <v>1089333</v>
+        <v>855000</v>
       </c>
       <c r="J7">
-        <v>5604499</v>
+        <v>1983771</v>
       </c>
       <c r="K7">
-        <v>2347383</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>1080000</v>
+        <v>8898120</v>
       </c>
       <c r="O7">
-        <v>836378</v>
-      </c>
-      <c r="P7">
-        <v>675001</v>
+        <v>1015694</v>
       </c>
       <c r="Q7">
-        <v>2130510</v>
+        <v>1588606</v>
       </c>
       <c r="R7">
-        <v>1128325</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
+        <v>948875</v>
       </c>
       <c r="U7">
-        <v>1770899</v>
-      </c>
-      <c r="V7">
-        <v>321916</v>
-      </c>
-      <c r="W7">
-        <v>798525</v>
-      </c>
-      <c r="X7">
-        <v>315000</v>
+        <v>3134700</v>
       </c>
       <c r="Y7">
         <v>1910001</v>
       </c>
       <c r="Z7">
-        <v>1428083</v>
+        <v>1491490</v>
       </c>
       <c r="AA7">
-        <v>1066500</v>
-      </c>
-      <c r="AB7">
-        <v>2151765</v>
+        <v>918000</v>
       </c>
       <c r="AC7">
-        <v>1179977</v>
-      </c>
-      <c r="AD7">
-        <v>2250000</v>
+        <v>3550000</v>
       </c>
       <c r="AE7">
-        <v>1185460</v>
+        <v>1893417</v>
       </c>
       <c r="AG7">
-        <v>2136388</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>8100000</v>
+        <v>2134641</v>
       </c>
       <c r="AK7">
-        <v>670403</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
+        <v>1779825</v>
       </c>
       <c r="AM7">
-        <v>1072197</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
+        <v>970000</v>
       </c>
       <c r="AP7">
-        <v>957474</v>
+        <v>1000504</v>
       </c>
       <c r="AQ7">
-        <v>671040</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
+        <v>1268256</v>
       </c>
       <c r="AS7">
         <v>1300000</v>
       </c>
       <c r="AU7">
-        <v>962329</v>
-      </c>
-      <c r="AV7">
-        <v>272500</v>
+        <v>1001300</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>1515001</v>
       </c>
       <c r="AX7">
-        <v>5869594</v>
+        <v>8044175</v>
       </c>
       <c r="AY7">
         <v>862050</v>
       </c>
       <c r="BA7">
-        <v>1549999</v>
-      </c>
-      <c r="BB7">
-        <v>1496880</v>
-      </c>
-      <c r="BD7">
-        <v>364833</v>
+        <v>1350000</v>
       </c>
       <c r="BE7">
-        <v>1400690</v>
+        <v>1355460</v>
       </c>
       <c r="BG7">
-        <v>1184061</v>
+        <v>2003624</v>
       </c>
       <c r="BH7">
-        <v>1539802</v>
+        <v>1601321</v>
       </c>
       <c r="BJ7">
         <v>1300000</v>
-      </c>
-      <c r="BK7">
-        <v>310001</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:65">
       <c r="A8" t="s">
         <v>70</v>
       </c>
+      <c r="B8">
+        <v>3510201</v>
+      </c>
+      <c r="D8">
+        <v>4354823</v>
+      </c>
+      <c r="J8">
+        <v>4841023</v>
+      </c>
+      <c r="K8">
+        <v>8898120</v>
+      </c>
+      <c r="N8">
+        <v>1080000</v>
+      </c>
+      <c r="O8">
+        <v>1355000</v>
+      </c>
+      <c r="Q8">
+        <v>3777425</v>
+      </c>
+      <c r="R8">
+        <v>1200000</v>
+      </c>
+      <c r="Z8">
+        <v>6479288</v>
+      </c>
+      <c r="AA8">
+        <v>2002500</v>
+      </c>
+      <c r="AC8">
+        <v>6633134</v>
+      </c>
+      <c r="AM8">
+        <v>1649799</v>
+      </c>
+      <c r="AP8">
+        <v>1337885</v>
+      </c>
+      <c r="AQ8">
+        <v>2089587</v>
+      </c>
+      <c r="AU8">
+        <v>1100000</v>
+      </c>
+      <c r="BE8">
+        <v>2940000</v>
+      </c>
+      <c r="BH8">
+        <v>3531307</v>
+      </c>
+      <c r="BL8">
+        <v>1989000</v>
+      </c>
     </row>
     <row r="9" spans="1:65">
       <c r="A9" t="s">
         <v>71</v>
       </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="10" spans="1:65">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:65">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="B11">
+        <v>796915</v>
       </c>
     </row>
     <row r="12" spans="1:65">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="B12">
+        <v>1252295</v>
       </c>
     </row>
     <row r="13" spans="1:65">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="B13">
+        <v>13661400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14">
+        <v>20492100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:65">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16">
+        <v>6000000</v>
+      </c>
+      <c r="D16">
+        <v>32024290</v>
+      </c>
+      <c r="Q16">
+        <v>40000000</v>
+      </c>
+      <c r="Z16">
+        <v>40600000</v>
+      </c>
+      <c r="BH16">
+        <v>4063993850</v>
+      </c>
+    </row>
+    <row r="17" spans="1:65">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17">
+        <v>33623560</v>
+      </c>
+      <c r="D17">
+        <v>32023560</v>
+      </c>
+      <c r="Q17">
+        <v>40000000</v>
+      </c>
+      <c r="Z17">
+        <v>40600000</v>
+      </c>
+      <c r="BH17">
+        <v>67991400</v>
       </c>
     </row>
   </sheetData>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -828,13 +828,13 @@
         <v>66</v>
       </c>
       <c r="B4">
-        <v>419858</v>
+        <v>387382</v>
       </c>
       <c r="D4">
         <v>306000</v>
       </c>
       <c r="Q4">
-        <v>543533</v>
+        <v>355386</v>
       </c>
       <c r="V4">
         <v>321916</v>
@@ -843,7 +843,7 @@
         <v>103499</v>
       </c>
       <c r="Z4">
-        <v>402135</v>
+        <v>428577</v>
       </c>
       <c r="AC4">
         <v>562500</v>
@@ -852,13 +852,13 @@
         <v>2250000</v>
       </c>
       <c r="AK4">
-        <v>420946</v>
+        <v>434786</v>
       </c>
       <c r="AQ4">
-        <v>588056</v>
+        <v>594188</v>
       </c>
       <c r="AU4">
-        <v>413280</v>
+        <v>412680</v>
       </c>
       <c r="AV4">
         <v>286250</v>
@@ -873,7 +873,7 @@
         <v>283050</v>
       </c>
       <c r="BH4">
-        <v>389179</v>
+        <v>378366</v>
       </c>
       <c r="BK4">
         <v>310001</v>
@@ -884,31 +884,37 @@
         <v>67</v>
       </c>
       <c r="B5">
-        <v>467967</v>
+        <v>570155</v>
       </c>
       <c r="C5">
         <v>562500</v>
       </c>
       <c r="D5">
-        <v>556549</v>
+        <v>742500</v>
       </c>
       <c r="H5">
         <v>674809</v>
       </c>
       <c r="I5">
-        <v>817000</v>
+        <v>953000</v>
       </c>
       <c r="J5">
-        <v>890001</v>
+        <v>392000</v>
+      </c>
+      <c r="K5">
+        <v>630001</v>
       </c>
       <c r="O5">
-        <v>474166</v>
+        <v>491000</v>
       </c>
       <c r="P5">
         <v>479999</v>
       </c>
       <c r="Q5">
-        <v>488097</v>
+        <v>396500</v>
+      </c>
+      <c r="T5">
+        <v>468000</v>
       </c>
       <c r="U5">
         <v>210000</v>
@@ -917,31 +923,46 @@
         <v>285000</v>
       </c>
       <c r="Z5">
-        <v>504815</v>
+        <v>487868</v>
+      </c>
+      <c r="AA5">
+        <v>300000</v>
       </c>
       <c r="AC5">
-        <v>383374</v>
+        <v>334499</v>
       </c>
       <c r="AE5">
         <v>675000</v>
       </c>
+      <c r="AH5">
+        <v>652428.57142857</v>
+      </c>
       <c r="AK5">
-        <v>396919</v>
+        <v>359784</v>
+      </c>
+      <c r="AL5">
+        <v>348000</v>
       </c>
       <c r="AM5">
         <v>408107</v>
       </c>
       <c r="AQ5">
-        <v>573803</v>
+        <v>604034</v>
+      </c>
+      <c r="AS5">
+        <v>360000</v>
       </c>
       <c r="AU5">
-        <v>330299</v>
+        <v>357749</v>
       </c>
       <c r="AV5">
-        <v>351749</v>
+        <v>294000</v>
+      </c>
+      <c r="AW5">
+        <v>264000</v>
       </c>
       <c r="AX5">
-        <v>588877</v>
+        <v>565945</v>
       </c>
       <c r="BA5">
         <v>607500</v>
@@ -949,11 +970,17 @@
       <c r="BD5">
         <v>405000</v>
       </c>
+      <c r="BF5">
+        <v>456000</v>
+      </c>
       <c r="BG5">
-        <v>402529</v>
+        <v>553949</v>
       </c>
       <c r="BH5">
-        <v>610442</v>
+        <v>527189</v>
+      </c>
+      <c r="BL5">
+        <v>420000</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -961,76 +988,97 @@
         <v>68</v>
       </c>
       <c r="B6">
-        <v>771957</v>
+        <v>732866</v>
       </c>
       <c r="C6">
-        <v>1341301</v>
+        <v>584000</v>
       </c>
       <c r="D6">
-        <v>982737</v>
+        <v>761166.66666667</v>
       </c>
       <c r="E6">
-        <v>760500</v>
+        <v>877500</v>
       </c>
       <c r="G6">
-        <v>600001</v>
+        <v>485500</v>
       </c>
       <c r="H6">
         <v>905332</v>
       </c>
+      <c r="J6">
+        <v>925600</v>
+      </c>
       <c r="K6">
-        <v>2024100</v>
+        <v>529171</v>
+      </c>
+      <c r="N6">
+        <v>432000</v>
       </c>
       <c r="O6">
-        <v>720586</v>
+        <v>672857.14285714</v>
       </c>
       <c r="Q6">
-        <v>824267</v>
+        <v>410400</v>
       </c>
       <c r="R6">
-        <v>1235000</v>
+        <v>1285000</v>
+      </c>
+      <c r="T6">
+        <v>598000</v>
       </c>
       <c r="U6">
-        <v>800000</v>
+        <v>2224500</v>
       </c>
       <c r="W6">
-        <v>798525</v>
+        <v>420000</v>
       </c>
       <c r="Z6">
-        <v>1428570</v>
+        <v>899500</v>
+      </c>
+      <c r="AA6">
+        <v>701000</v>
       </c>
       <c r="AB6">
         <v>2151765</v>
       </c>
       <c r="AC6">
-        <v>1063099</v>
+        <v>922500</v>
       </c>
       <c r="AE6">
         <v>1500000</v>
       </c>
       <c r="AG6">
-        <v>2056634</v>
+        <v>2057600</v>
+      </c>
+      <c r="AH6">
+        <v>777600</v>
       </c>
       <c r="AJ6">
         <v>8100000</v>
       </c>
       <c r="AK6">
-        <v>847777</v>
+        <v>855555</v>
       </c>
       <c r="AM6">
         <v>1091647</v>
       </c>
       <c r="AP6">
-        <v>1259701</v>
+        <v>1369701</v>
       </c>
       <c r="AQ6">
-        <v>661552</v>
+        <v>664112</v>
       </c>
       <c r="AR6">
         <v>1000000</v>
       </c>
+      <c r="AS6">
+        <v>684500</v>
+      </c>
+      <c r="AT6">
+        <v>610000</v>
+      </c>
       <c r="AU6">
-        <v>921976</v>
+        <v>989235</v>
       </c>
       <c r="AV6">
         <v>554801</v>
@@ -1039,25 +1087,28 @@
         <v>951000</v>
       </c>
       <c r="AX6">
-        <v>945900</v>
+        <v>914400</v>
       </c>
       <c r="AY6">
-        <v>2385000</v>
+        <v>900000</v>
       </c>
       <c r="BB6">
         <v>1496880</v>
       </c>
       <c r="BD6">
-        <v>599000</v>
+        <v>500000</v>
       </c>
       <c r="BE6">
         <v>751151</v>
       </c>
+      <c r="BF6">
+        <v>650600</v>
+      </c>
       <c r="BG6">
         <v>1300355</v>
       </c>
       <c r="BH6">
-        <v>1047672</v>
+        <v>947112</v>
       </c>
       <c r="BL6">
         <v>1265000</v>
@@ -1068,70 +1119,91 @@
         <v>69</v>
       </c>
       <c r="B7">
-        <v>1961257</v>
+        <v>1374624</v>
       </c>
       <c r="C7">
-        <v>1785912</v>
+        <v>1788574</v>
       </c>
       <c r="D7">
-        <v>1885679</v>
+        <v>1198900</v>
       </c>
       <c r="H7">
         <v>1586250</v>
       </c>
       <c r="I7">
-        <v>940499</v>
+        <v>855000</v>
       </c>
       <c r="J7">
-        <v>1647062</v>
+        <v>1325000</v>
+      </c>
+      <c r="K7">
+        <v>2328480</v>
       </c>
       <c r="O7">
-        <v>1068496</v>
+        <v>1024100</v>
       </c>
       <c r="Q7">
-        <v>1967020</v>
+        <v>924500</v>
       </c>
       <c r="R7">
-        <v>937039</v>
+        <v>938055</v>
+      </c>
+      <c r="T7">
+        <v>690000</v>
       </c>
       <c r="U7">
         <v>3003000</v>
       </c>
+      <c r="W7">
+        <v>1017000</v>
+      </c>
       <c r="Y7">
         <v>1910001</v>
       </c>
       <c r="Z7">
-        <v>3207291</v>
+        <v>1084500</v>
       </c>
       <c r="AA7">
         <v>918000</v>
       </c>
       <c r="AC7">
-        <v>4729920</v>
+        <v>1596200</v>
       </c>
       <c r="AE7">
-        <v>2486218</v>
+        <v>1893417</v>
       </c>
       <c r="AG7">
-        <v>2376198</v>
+        <v>2379739</v>
+      </c>
+      <c r="AH7">
+        <v>1375600</v>
       </c>
       <c r="AK7">
-        <v>2379300</v>
+        <v>1872325</v>
+      </c>
+      <c r="AL7">
+        <v>9000001</v>
       </c>
       <c r="AM7">
         <v>970000</v>
       </c>
       <c r="AP7">
-        <v>740259</v>
+        <v>838506</v>
       </c>
       <c r="AQ7">
-        <v>1269152</v>
+        <v>1244453</v>
+      </c>
+      <c r="AR7">
+        <v>1134500</v>
       </c>
       <c r="AS7">
-        <v>1320000</v>
+        <v>1340000</v>
+      </c>
+      <c r="AT7">
+        <v>702000</v>
       </c>
       <c r="AU7">
-        <v>975950</v>
+        <v>1139950</v>
       </c>
       <c r="AV7">
         <v>810000</v>
@@ -1140,10 +1212,10 @@
         <v>1515001</v>
       </c>
       <c r="AX7">
-        <v>7470552</v>
+        <v>8182539</v>
       </c>
       <c r="AY7">
-        <v>862050</v>
+        <v>892500</v>
       </c>
       <c r="BA7">
         <v>1350000</v>
@@ -1151,14 +1223,20 @@
       <c r="BE7">
         <v>1788000</v>
       </c>
+      <c r="BF7">
+        <v>862000</v>
+      </c>
       <c r="BG7">
-        <v>1756405</v>
+        <v>1759023</v>
       </c>
       <c r="BH7">
-        <v>1707815</v>
+        <v>1598080</v>
       </c>
       <c r="BJ7">
         <v>1300000</v>
+      </c>
+      <c r="BL7">
+        <v>1243000</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -1166,55 +1244,76 @@
         <v>70</v>
       </c>
       <c r="B8">
-        <v>5423918</v>
+        <v>3141941</v>
       </c>
       <c r="D8">
-        <v>5781228</v>
+        <v>4069400</v>
       </c>
       <c r="J8">
-        <v>4203368</v>
+        <v>2033000</v>
+      </c>
+      <c r="K8">
+        <v>1526000</v>
       </c>
       <c r="N8">
-        <v>1080000</v>
+        <v>1017000</v>
       </c>
       <c r="O8">
-        <v>1377499</v>
+        <v>1090000</v>
       </c>
       <c r="Q8">
-        <v>3882344</v>
+        <v>2061200</v>
       </c>
       <c r="R8">
         <v>1200000</v>
       </c>
       <c r="Z8">
-        <v>2753945</v>
+        <v>870000</v>
       </c>
       <c r="AA8">
-        <v>3037500</v>
+        <v>2860000</v>
       </c>
       <c r="AC8">
-        <v>7137581</v>
+        <v>1981500</v>
+      </c>
+      <c r="AH8">
+        <v>3089300</v>
+      </c>
+      <c r="AK8">
+        <v>1875400</v>
       </c>
       <c r="AM8">
         <v>1649799</v>
       </c>
       <c r="AP8">
-        <v>2012884</v>
+        <v>2102884</v>
       </c>
       <c r="AQ8">
         <v>2111515</v>
       </c>
+      <c r="AR8">
+        <v>13383000</v>
+      </c>
+      <c r="AT8">
+        <v>2099000</v>
+      </c>
       <c r="AU8">
         <v>1120001</v>
       </c>
+      <c r="AV8">
+        <v>3011333.3333333</v>
+      </c>
       <c r="AX8">
-        <v>16190056</v>
+        <v>20183947</v>
       </c>
       <c r="BE8">
         <v>3090000</v>
       </c>
+      <c r="BF8">
+        <v>2525142.8571429</v>
+      </c>
       <c r="BH8">
-        <v>2764019</v>
+        <v>2852666</v>
       </c>
       <c r="BL8">
         <v>2784001</v>
@@ -1241,7 +1340,7 @@
         <v>75</v>
       </c>
       <c r="B11">
-        <v>798735</v>
+        <v>798490</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -1249,7 +1348,7 @@
         <v>76</v>
       </c>
       <c r="B12">
-        <v>1255155</v>
+        <v>1254770</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -1257,7 +1356,7 @@
         <v>77</v>
       </c>
       <c r="B13">
-        <v>13692600</v>
+        <v>13688400</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -1265,7 +1364,7 @@
         <v>78</v>
       </c>
       <c r="B14">
-        <v>20538900</v>
+        <v>20532600</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -1289,10 +1388,10 @@
         <v>81</v>
       </c>
       <c r="B17">
-        <v>26584820</v>
+        <v>41886340</v>
       </c>
       <c r="D17">
-        <v>26584820</v>
+        <v>39886340</v>
       </c>
       <c r="Q17">
         <v>40000000</v>
@@ -1301,7 +1400,7 @@
         <v>40600000</v>
       </c>
       <c r="BH17">
-        <v>68111450</v>
+        <v>72194300</v>
       </c>
     </row>
   </sheetData>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>Toàn Quốc</t>
   </si>
@@ -209,10 +209,7 @@
     <t>Yên Bái</t>
   </si>
   <si>
-    <t>Motel (single room)(24h)</t>
-  </si>
-  <si>
-    <t>Motel (double room)(24h)</t>
+    <t>Motel</t>
   </si>
   <si>
     <t>1-star Hotel</t>
@@ -230,28 +227,16 @@
     <t>5-star Hotel</t>
   </si>
   <si>
-    <t>Room for rent by hour (single room)</t>
-  </si>
-  <si>
-    <t>first :60000 + 10000</t>
-  </si>
-  <si>
-    <t>Room for rent by hour (double room)</t>
-  </si>
-  <si>
-    <t>first :80000 + 20000</t>
-  </si>
-  <si>
-    <t>Room for rent by day(single room)</t>
-  </si>
-  <si>
-    <t>Room for rent by day(double room)</t>
-  </si>
-  <si>
-    <t>Room for rent by month (single room)</t>
-  </si>
-  <si>
-    <t>Room for rent by month (double room)</t>
+    <t>Room for rent by hour</t>
+  </si>
+  <si>
+    <t>first :70000 + 15000</t>
+  </si>
+  <si>
+    <t>Room for rent by day</t>
+  </si>
+  <si>
+    <t>Room for rent by month</t>
   </si>
   <si>
     <t>Home Stay by day</t>
@@ -602,15 +587,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BM17"/>
+  <dimension ref="A1:BM13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.83203125" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="43.560791" customWidth="true" style="0"/>
+    <col min="1" max="1" width="36.5" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65">
@@ -812,7 +797,7 @@
         <v>64</v>
       </c>
       <c r="B2">
-        <v>230000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -820,7 +805,70 @@
         <v>65</v>
       </c>
       <c r="B3">
-        <v>350000</v>
+        <v>340889</v>
+      </c>
+      <c r="D3">
+        <v>409500</v>
+      </c>
+      <c r="F3">
+        <v>250789</v>
+      </c>
+      <c r="G3">
+        <v>136794</v>
+      </c>
+      <c r="L3">
+        <v>136794</v>
+      </c>
+      <c r="Q3">
+        <v>408010</v>
+      </c>
+      <c r="V3">
+        <v>321916</v>
+      </c>
+      <c r="X3">
+        <v>103499</v>
+      </c>
+      <c r="Z3">
+        <v>430580</v>
+      </c>
+      <c r="AC3">
+        <v>562500</v>
+      </c>
+      <c r="AD3">
+        <v>2250000</v>
+      </c>
+      <c r="AK3">
+        <v>339806</v>
+      </c>
+      <c r="AQ3">
+        <v>566000</v>
+      </c>
+      <c r="AR3">
+        <v>287999</v>
+      </c>
+      <c r="AU3">
+        <v>384158</v>
+      </c>
+      <c r="AV3">
+        <v>272500</v>
+      </c>
+      <c r="BD3">
+        <v>162000</v>
+      </c>
+      <c r="BE3">
+        <v>331000</v>
+      </c>
+      <c r="BG3">
+        <v>283050</v>
+      </c>
+      <c r="BH3">
+        <v>381856</v>
+      </c>
+      <c r="BK3">
+        <v>310001</v>
+      </c>
+      <c r="BM3">
+        <v>182392</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -828,55 +876,109 @@
         <v>66</v>
       </c>
       <c r="B4">
-        <v>387382</v>
+        <v>594810</v>
+      </c>
+      <c r="C4">
+        <v>562500</v>
       </c>
       <c r="D4">
-        <v>306000</v>
+        <v>742500</v>
+      </c>
+      <c r="H4">
+        <v>674809</v>
+      </c>
+      <c r="I4">
+        <v>1121000</v>
+      </c>
+      <c r="J4">
+        <v>392000</v>
+      </c>
+      <c r="K4">
+        <v>599298</v>
+      </c>
+      <c r="O4">
+        <v>491000</v>
+      </c>
+      <c r="P4">
+        <v>479999</v>
       </c>
       <c r="Q4">
-        <v>355386</v>
-      </c>
-      <c r="V4">
-        <v>321916</v>
+        <v>396500</v>
+      </c>
+      <c r="T4">
+        <v>468000</v>
+      </c>
+      <c r="U4">
+        <v>210000</v>
       </c>
       <c r="X4">
-        <v>103499</v>
+        <v>292500</v>
       </c>
       <c r="Z4">
-        <v>428577</v>
+        <v>447012</v>
+      </c>
+      <c r="AA4">
+        <v>300000</v>
       </c>
       <c r="AC4">
-        <v>562500</v>
-      </c>
-      <c r="AD4">
-        <v>2250000</v>
+        <v>383374</v>
+      </c>
+      <c r="AE4">
+        <v>675000</v>
+      </c>
+      <c r="AH4">
+        <v>652428.57142857</v>
       </c>
       <c r="AK4">
-        <v>434786</v>
+        <v>389500</v>
+      </c>
+      <c r="AL4">
+        <v>348000</v>
+      </c>
+      <c r="AM4">
+        <v>1004650</v>
+      </c>
+      <c r="AO4">
+        <v>296387</v>
       </c>
       <c r="AQ4">
-        <v>594188</v>
+        <v>567000</v>
+      </c>
+      <c r="AS4">
+        <v>360000</v>
       </c>
       <c r="AU4">
-        <v>412680</v>
+        <v>476000</v>
       </c>
       <c r="AV4">
-        <v>286250</v>
+        <v>836000</v>
+      </c>
+      <c r="AW4">
+        <v>264000</v>
+      </c>
+      <c r="AX4">
+        <v>630418</v>
+      </c>
+      <c r="BA4">
+        <v>585001</v>
       </c>
       <c r="BD4">
-        <v>162000</v>
-      </c>
-      <c r="BE4">
-        <v>331000</v>
+        <v>468000</v>
+      </c>
+      <c r="BF4">
+        <v>456000</v>
       </c>
       <c r="BG4">
-        <v>283050</v>
+        <v>429607</v>
       </c>
       <c r="BH4">
-        <v>378366</v>
-      </c>
-      <c r="BK4">
-        <v>310001</v>
+        <v>538500</v>
+      </c>
+      <c r="BI4">
+        <v>364784</v>
+      </c>
+      <c r="BL4">
+        <v>420000</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -884,103 +986,145 @@
         <v>67</v>
       </c>
       <c r="B5">
-        <v>570155</v>
+        <v>746855</v>
       </c>
       <c r="C5">
-        <v>562500</v>
+        <v>584000</v>
       </c>
       <c r="D5">
-        <v>742500</v>
+        <v>761166.66666667</v>
+      </c>
+      <c r="E5">
+        <v>760500</v>
+      </c>
+      <c r="G5">
+        <v>485500</v>
       </c>
       <c r="H5">
-        <v>674809</v>
-      </c>
-      <c r="I5">
-        <v>953000</v>
+        <v>942831</v>
       </c>
       <c r="J5">
-        <v>392000</v>
+        <v>925600</v>
       </c>
       <c r="K5">
-        <v>630001</v>
+        <v>3945956</v>
+      </c>
+      <c r="M5">
+        <v>68397</v>
+      </c>
+      <c r="N5">
+        <v>432000</v>
       </c>
       <c r="O5">
-        <v>491000</v>
-      </c>
-      <c r="P5">
-        <v>479999</v>
+        <v>672857.14285714</v>
       </c>
       <c r="Q5">
-        <v>396500</v>
+        <v>410400</v>
+      </c>
+      <c r="R5">
+        <v>1235000</v>
+      </c>
+      <c r="S5">
+        <v>387583</v>
       </c>
       <c r="T5">
-        <v>468000</v>
+        <v>598000</v>
       </c>
       <c r="U5">
-        <v>210000</v>
-      </c>
-      <c r="X5">
-        <v>285000</v>
+        <v>2224500</v>
+      </c>
+      <c r="W5">
+        <v>420000</v>
       </c>
       <c r="Z5">
-        <v>487868</v>
+        <v>899500</v>
       </c>
       <c r="AA5">
-        <v>300000</v>
+        <v>701000</v>
+      </c>
+      <c r="AB5">
+        <v>2151765</v>
       </c>
       <c r="AC5">
-        <v>334499</v>
+        <v>922500</v>
       </c>
       <c r="AE5">
-        <v>675000</v>
+        <v>1500000</v>
+      </c>
+      <c r="AF5">
+        <v>706769</v>
+      </c>
+      <c r="AG5">
+        <v>2486539</v>
       </c>
       <c r="AH5">
-        <v>652428.57142857</v>
+        <v>777600</v>
+      </c>
+      <c r="AJ5">
+        <v>8100000</v>
       </c>
       <c r="AK5">
-        <v>359784</v>
-      </c>
-      <c r="AL5">
-        <v>348000</v>
+        <v>944777.77777778</v>
       </c>
       <c r="AM5">
-        <v>408107</v>
+        <v>1041647</v>
+      </c>
+      <c r="AN5">
+        <v>615573</v>
+      </c>
+      <c r="AP5">
+        <v>473250</v>
       </c>
       <c r="AQ5">
-        <v>604034</v>
+        <v>586400</v>
+      </c>
+      <c r="AR5">
+        <v>722000</v>
       </c>
       <c r="AS5">
-        <v>360000</v>
+        <v>684500</v>
+      </c>
+      <c r="AT5">
+        <v>610000</v>
       </c>
       <c r="AU5">
-        <v>357749</v>
+        <v>527000</v>
       </c>
       <c r="AV5">
-        <v>294000</v>
+        <v>901750</v>
       </c>
       <c r="AW5">
-        <v>264000</v>
+        <v>534666.66666667</v>
       </c>
       <c r="AX5">
-        <v>565945</v>
-      </c>
-      <c r="BA5">
-        <v>607500</v>
+        <v>626333.33333333</v>
+      </c>
+      <c r="AY5">
+        <v>372000</v>
+      </c>
+      <c r="AZ5">
+        <v>410382</v>
+      </c>
+      <c r="BB5">
+        <v>1496880</v>
       </c>
       <c r="BD5">
-        <v>405000</v>
+        <v>604000</v>
+      </c>
+      <c r="BE5">
+        <v>981965</v>
       </c>
       <c r="BF5">
-        <v>456000</v>
+        <v>650600</v>
       </c>
       <c r="BG5">
-        <v>553949</v>
+        <v>2872089</v>
       </c>
       <c r="BH5">
-        <v>527189</v>
+        <v>749200</v>
       </c>
       <c r="BL5">
-        <v>420000</v>
+        <v>1526000</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -988,130 +1132,133 @@
         <v>68</v>
       </c>
       <c r="B6">
-        <v>732866</v>
+        <v>1499358</v>
       </c>
       <c r="C6">
-        <v>584000</v>
+        <v>1784268</v>
       </c>
       <c r="D6">
-        <v>761166.66666667</v>
+        <v>1198900</v>
       </c>
       <c r="E6">
-        <v>877500</v>
-      </c>
-      <c r="G6">
-        <v>485500</v>
+        <v>661171</v>
+      </c>
+      <c r="F6">
+        <v>501578</v>
       </c>
       <c r="H6">
-        <v>905332</v>
+        <v>1586250</v>
+      </c>
+      <c r="I6">
+        <v>1077299</v>
       </c>
       <c r="J6">
-        <v>925600</v>
+        <v>1325000</v>
       </c>
       <c r="K6">
-        <v>529171</v>
-      </c>
-      <c r="N6">
-        <v>432000</v>
+        <v>1444905</v>
+      </c>
+      <c r="M6">
+        <v>775166</v>
       </c>
       <c r="O6">
-        <v>672857.14285714</v>
+        <v>1024100</v>
       </c>
       <c r="Q6">
-        <v>410400</v>
+        <v>924500</v>
       </c>
       <c r="R6">
-        <v>1285000</v>
+        <v>975723</v>
       </c>
       <c r="T6">
-        <v>598000</v>
+        <v>690000</v>
       </c>
       <c r="U6">
-        <v>2224500</v>
+        <v>3003000</v>
       </c>
       <c r="W6">
-        <v>420000</v>
+        <v>1017000</v>
+      </c>
+      <c r="Y6">
+        <v>1910001</v>
       </c>
       <c r="Z6">
-        <v>899500</v>
+        <v>1084500</v>
       </c>
       <c r="AA6">
-        <v>701000</v>
-      </c>
-      <c r="AB6">
-        <v>2151765</v>
+        <v>918000</v>
       </c>
       <c r="AC6">
-        <v>922500</v>
+        <v>1596200</v>
       </c>
       <c r="AE6">
-        <v>1500000</v>
+        <v>2695000</v>
       </c>
       <c r="AG6">
-        <v>2057600</v>
+        <v>2634432</v>
       </c>
       <c r="AH6">
-        <v>777600</v>
-      </c>
-      <c r="AJ6">
-        <v>8100000</v>
+        <v>1375600</v>
       </c>
       <c r="AK6">
-        <v>855555</v>
+        <v>849500</v>
+      </c>
+      <c r="AL6">
+        <v>690000</v>
       </c>
       <c r="AM6">
-        <v>1091647</v>
+        <v>724000</v>
       </c>
       <c r="AP6">
-        <v>1369701</v>
+        <v>600500</v>
       </c>
       <c r="AQ6">
-        <v>664112</v>
+        <v>973200</v>
       </c>
       <c r="AR6">
-        <v>1000000</v>
+        <v>1134500</v>
       </c>
       <c r="AS6">
-        <v>684500</v>
+        <v>1119000</v>
       </c>
       <c r="AT6">
-        <v>610000</v>
+        <v>702000</v>
       </c>
       <c r="AU6">
-        <v>989235</v>
+        <v>787666.66666667</v>
       </c>
       <c r="AV6">
-        <v>554801</v>
+        <v>954000</v>
       </c>
       <c r="AW6">
-        <v>951000</v>
+        <v>621000</v>
       </c>
       <c r="AX6">
-        <v>914400</v>
+        <v>968400</v>
       </c>
       <c r="AY6">
-        <v>900000</v>
-      </c>
-      <c r="BB6">
-        <v>1496880</v>
-      </c>
-      <c r="BD6">
-        <v>500000</v>
+        <v>690500</v>
+      </c>
+      <c r="BA6">
+        <v>1549999</v>
       </c>
       <c r="BE6">
-        <v>751151</v>
+        <v>2354000</v>
       </c>
       <c r="BF6">
-        <v>650600</v>
+        <v>862000</v>
       </c>
       <c r="BG6">
-        <v>1300355</v>
+        <v>1914348</v>
       </c>
       <c r="BH6">
-        <v>947112</v>
+        <v>1186400</v>
+      </c>
+      <c r="BJ6">
+        <v>1300000</v>
       </c>
       <c r="BL6">
-        <v>1265000</v>
+        <v>1243000</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -1119,295 +1266,146 @@
         <v>69</v>
       </c>
       <c r="B7">
-        <v>1374624</v>
-      </c>
-      <c r="C7">
-        <v>1788574</v>
+        <v>3511731</v>
       </c>
       <c r="D7">
-        <v>1198900</v>
-      </c>
-      <c r="H7">
-        <v>1586250</v>
-      </c>
-      <c r="I7">
-        <v>855000</v>
+        <v>4069400</v>
       </c>
       <c r="J7">
-        <v>1325000</v>
+        <v>2033000</v>
       </c>
       <c r="K7">
-        <v>2328480</v>
+        <v>1526000</v>
+      </c>
+      <c r="N7">
+        <v>1017000</v>
       </c>
       <c r="O7">
-        <v>1024100</v>
+        <v>1090000</v>
       </c>
       <c r="Q7">
-        <v>924500</v>
+        <v>2061200</v>
       </c>
       <c r="R7">
-        <v>938055</v>
-      </c>
-      <c r="T7">
-        <v>690000</v>
-      </c>
-      <c r="U7">
-        <v>3003000</v>
-      </c>
-      <c r="W7">
-        <v>1017000</v>
-      </c>
-      <c r="Y7">
-        <v>1910001</v>
+        <v>1200000</v>
       </c>
       <c r="Z7">
-        <v>1084500</v>
+        <v>870000</v>
       </c>
       <c r="AA7">
-        <v>918000</v>
+        <v>2860000</v>
       </c>
       <c r="AC7">
-        <v>1596200</v>
-      </c>
-      <c r="AE7">
-        <v>1893417</v>
-      </c>
-      <c r="AG7">
-        <v>2379739</v>
+        <v>1981500</v>
       </c>
       <c r="AH7">
-        <v>1375600</v>
+        <v>3089300</v>
       </c>
       <c r="AK7">
-        <v>1872325</v>
-      </c>
-      <c r="AL7">
-        <v>9000001</v>
+        <v>1875400</v>
       </c>
       <c r="AM7">
-        <v>970000</v>
+        <v>1090000</v>
       </c>
       <c r="AP7">
-        <v>838506</v>
+        <v>1206000</v>
       </c>
       <c r="AQ7">
-        <v>1244453</v>
+        <v>2730000</v>
       </c>
       <c r="AR7">
-        <v>1134500</v>
-      </c>
-      <c r="AS7">
-        <v>1340000</v>
+        <v>13383000</v>
       </c>
       <c r="AT7">
-        <v>702000</v>
+        <v>2099000</v>
       </c>
       <c r="AU7">
-        <v>1139950</v>
+        <v>1329000</v>
       </c>
       <c r="AV7">
-        <v>810000</v>
-      </c>
-      <c r="AW7">
-        <v>1515001</v>
+        <v>3011333.3333333</v>
       </c>
       <c r="AX7">
-        <v>8182539</v>
-      </c>
-      <c r="AY7">
-        <v>892500</v>
-      </c>
-      <c r="BA7">
-        <v>1350000</v>
+        <v>2171250</v>
       </c>
       <c r="BE7">
-        <v>1788000</v>
+        <v>4900000</v>
       </c>
       <c r="BF7">
-        <v>862000</v>
-      </c>
-      <c r="BG7">
-        <v>1759023</v>
+        <v>2525142.8571429</v>
       </c>
       <c r="BH7">
-        <v>1598080</v>
-      </c>
-      <c r="BJ7">
-        <v>1300000</v>
+        <v>2266200</v>
       </c>
       <c r="BL7">
-        <v>1243000</v>
+        <v>1630666.6666667</v>
       </c>
     </row>
     <row r="8" spans="1:65">
       <c r="A8" t="s">
         <v>70</v>
       </c>
-      <c r="B8">
-        <v>3141941</v>
-      </c>
-      <c r="D8">
-        <v>4069400</v>
-      </c>
-      <c r="J8">
-        <v>2033000</v>
-      </c>
-      <c r="K8">
-        <v>1526000</v>
-      </c>
-      <c r="N8">
-        <v>1017000</v>
-      </c>
-      <c r="O8">
-        <v>1090000</v>
-      </c>
-      <c r="Q8">
-        <v>2061200</v>
-      </c>
-      <c r="R8">
-        <v>1200000</v>
-      </c>
-      <c r="Z8">
-        <v>870000</v>
-      </c>
-      <c r="AA8">
-        <v>2860000</v>
-      </c>
-      <c r="AC8">
-        <v>1981500</v>
-      </c>
-      <c r="AH8">
-        <v>3089300</v>
-      </c>
-      <c r="AK8">
-        <v>1875400</v>
-      </c>
-      <c r="AM8">
-        <v>1649799</v>
-      </c>
-      <c r="AP8">
-        <v>2102884</v>
-      </c>
-      <c r="AQ8">
-        <v>2111515</v>
-      </c>
-      <c r="AR8">
-        <v>13383000</v>
-      </c>
-      <c r="AT8">
-        <v>2099000</v>
-      </c>
-      <c r="AU8">
-        <v>1120001</v>
-      </c>
-      <c r="AV8">
-        <v>3011333.3333333</v>
-      </c>
-      <c r="AX8">
-        <v>20183947</v>
-      </c>
-      <c r="BE8">
-        <v>3090000</v>
-      </c>
-      <c r="BF8">
-        <v>2525142.8571429</v>
-      </c>
-      <c r="BH8">
-        <v>2852666</v>
-      </c>
-      <c r="BL8">
-        <v>2784001</v>
+      <c r="B8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:65">
       <c r="A9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" t="s">
         <v>72</v>
+      </c>
+      <c r="B9">
+        <v>1025955</v>
       </c>
     </row>
     <row r="10" spans="1:65">
       <c r="A10" t="s">
         <v>73</v>
       </c>
-      <c r="B10" t="s">
-        <v>74</v>
+      <c r="B10">
+        <v>17099250</v>
       </c>
     </row>
     <row r="11" spans="1:65">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11">
-        <v>798490</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="12" spans="1:65">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12">
-        <v>1254770</v>
+        <v>5333333.3333333</v>
       </c>
     </row>
     <row r="13" spans="1:65">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13">
-        <v>13688400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:65">
-      <c r="A14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14">
-        <v>20532600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:65">
-      <c r="A15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:65">
-      <c r="A16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16">
-        <v>5750000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:65">
-      <c r="A17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17">
-        <v>41886340</v>
-      </c>
-      <c r="D17">
-        <v>39886340</v>
-      </c>
-      <c r="Q17">
+        <v>42402570</v>
+      </c>
+      <c r="D13">
+        <v>40102570</v>
+      </c>
+      <c r="Q13">
         <v>40000000</v>
       </c>
-      <c r="Z17">
+      <c r="Z13">
         <v>40600000</v>
       </c>
-      <c r="BH17">
-        <v>72194300</v>
+      <c r="BH13">
+        <v>72157550</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -811,13 +811,13 @@
         <v>409500</v>
       </c>
       <c r="F3">
-        <v>250789</v>
+        <v>251086</v>
       </c>
       <c r="G3">
-        <v>136794</v>
+        <v>136956</v>
       </c>
       <c r="L3">
-        <v>136794</v>
+        <v>136956</v>
       </c>
       <c r="Q3">
         <v>408010</v>
@@ -868,7 +868,7 @@
         <v>310001</v>
       </c>
       <c r="BM3">
-        <v>182392</v>
+        <v>182608</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -939,7 +939,7 @@
         <v>1004650</v>
       </c>
       <c r="AO4">
-        <v>296387</v>
+        <v>296738</v>
       </c>
       <c r="AQ4">
         <v>567000</v>
@@ -975,7 +975,7 @@
         <v>538500</v>
       </c>
       <c r="BI4">
-        <v>364784</v>
+        <v>365216</v>
       </c>
       <c r="BL4">
         <v>420000</v>
@@ -1010,7 +1010,7 @@
         <v>3945956</v>
       </c>
       <c r="M5">
-        <v>68397</v>
+        <v>68478</v>
       </c>
       <c r="N5">
         <v>432000</v>
@@ -1025,7 +1025,7 @@
         <v>1235000</v>
       </c>
       <c r="S5">
-        <v>387583</v>
+        <v>388042</v>
       </c>
       <c r="T5">
         <v>598000</v>
@@ -1052,7 +1052,7 @@
         <v>1500000</v>
       </c>
       <c r="AF5">
-        <v>706769</v>
+        <v>707606</v>
       </c>
       <c r="AG5">
         <v>2486539</v>
@@ -1070,7 +1070,7 @@
         <v>1041647</v>
       </c>
       <c r="AN5">
-        <v>615573</v>
+        <v>616302</v>
       </c>
       <c r="AP5">
         <v>473250</v>
@@ -1103,7 +1103,7 @@
         <v>372000</v>
       </c>
       <c r="AZ5">
-        <v>410382</v>
+        <v>410868</v>
       </c>
       <c r="BB5">
         <v>1496880</v>
@@ -1141,10 +1141,10 @@
         <v>1198900</v>
       </c>
       <c r="E6">
-        <v>661171</v>
+        <v>661954</v>
       </c>
       <c r="F6">
-        <v>501578</v>
+        <v>502172</v>
       </c>
       <c r="H6">
         <v>1586250</v>
@@ -1159,7 +1159,7 @@
         <v>1444905</v>
       </c>
       <c r="M6">
-        <v>775166</v>
+        <v>776084</v>
       </c>
       <c r="O6">
         <v>1024100</v>
